--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARCO\Documents\Tesi laureandi\Giuseppe Antonelli\OPTIMISED SAMPLING NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8D4537-44A3-4D44-98DD-452397968082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5710D77-7BAB-42F1-B66D-DC9066E9FB30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" r:id="rId1"/>
-    <sheet name="codes" sheetId="3" r:id="rId2"/>
-    <sheet name="coordinates" sheetId="4" r:id="rId3"/>
-    <sheet name="spectral" sheetId="5" r:id="rId4"/>
-    <sheet name="spectral sampling" sheetId="6" r:id="rId5"/>
-    <sheet name="spatial sampling" sheetId="7" r:id="rId6"/>
-    <sheet name="list" sheetId="2" r:id="rId7"/>
+    <sheet name="plot2" sheetId="8" r:id="rId2"/>
+    <sheet name="codes" sheetId="3" r:id="rId3"/>
+    <sheet name="coordinates" sheetId="4" r:id="rId4"/>
+    <sheet name="spectral" sheetId="5" r:id="rId5"/>
+    <sheet name="spectral sampling" sheetId="6" r:id="rId6"/>
+    <sheet name="spatial sampling" sheetId="7" r:id="rId7"/>
+    <sheet name="list" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="explicit_maximised_order" localSheetId="5">'spatial sampling'!$A$3:$L$15</definedName>
-    <definedName name="sampling_order" localSheetId="4">'spectral sampling'!$A$3:$L$15</definedName>
+    <definedName name="explicit_maximised_order" localSheetId="6">'spatial sampling'!$A$3:$L$15</definedName>
+    <definedName name="sampling_order" localSheetId="5">'spectral sampling'!$A$3:$L$15</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -361,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="179">
   <si>
     <t>01 Massaciuccoli N</t>
   </si>
@@ -885,7 +886,19 @@
     <t>Distanza spazoale nella sequenza dei plot massimizzata</t>
   </si>
   <si>
-    <t>Tempo stimato</t>
+    <t>Tempo stimato (mean)</t>
+  </si>
+  <si>
+    <t>Tempo stimato (sum)</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>sp1</t>
+  </si>
+  <si>
+    <t>sp2</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1104,6 +1117,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1394,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,6 +2343,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ABA97F-DB52-4C7A-8708-45CACEC741FA}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FECCDD-029B-431A-BDFF-CD6880011535}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2452,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BBD183-6FF0-4A5D-B17E-C0B75228DA47}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2618,19 +2695,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48EA8C-670D-41AD-87B3-D6C51B7B6B15}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2793,26 +2870,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED00A2-2E1E-4AEE-A57B-8D7F5FA7ED2C}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2849,11 +2927,8 @@
       <c r="L3" s="1">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2891,7 +2966,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2929,7 +3004,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -2967,7 +3042,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3005,7 +3080,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -3043,7 +3118,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -3081,7 +3156,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -3119,7 +3194,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -3157,7 +3232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3195,7 +3270,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3233,7 +3308,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3271,7 +3346,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -3307,6 +3382,59 @@
       </c>
       <c r="L15" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="29" t="e">
+        <f>AVERAGE(B4:B15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="29" t="e">
+        <f t="shared" ref="C18:L18" si="0">AVERAGE(C4:C15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" t="e">
+        <f>SUM(B18:L18)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3314,12 +3442,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A46952-6A89-4D8D-B848-421230CAC97F}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3330,15 +3458,16 @@
     <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -3378,8 +3507,11 @@
       <c r="M3" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -3417,7 +3549,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -3455,7 +3587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -3493,7 +3625,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3531,7 +3663,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -3569,7 +3701,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -3607,7 +3739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -3645,7 +3777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -3683,7 +3815,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3721,7 +3853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3759,7 +3891,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3797,7 +3929,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -3840,7 +3972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84F665-DE8C-4CD5-AE35-CAAF3C74DFA7}">
   <dimension ref="A1:A307"/>
   <sheetViews>

--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARCO\Documents\Tesi laureandi\Giuseppe Antonelli\OPTIMISED SAMPLING NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8D4537-44A3-4D44-98DD-452397968082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7307A1F-3D7B-4F80-B13E-A0E63432791C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" r:id="rId1"/>
-    <sheet name="codes" sheetId="3" r:id="rId2"/>
-    <sheet name="coordinates" sheetId="4" r:id="rId3"/>
-    <sheet name="spectral" sheetId="5" r:id="rId4"/>
-    <sheet name="spectral sampling" sheetId="6" r:id="rId5"/>
-    <sheet name="spatial sampling" sheetId="7" r:id="rId6"/>
-    <sheet name="list" sheetId="2" r:id="rId7"/>
+    <sheet name="virtuallist" sheetId="8" r:id="rId2"/>
+    <sheet name="codes" sheetId="3" r:id="rId3"/>
+    <sheet name="coordinates" sheetId="4" r:id="rId4"/>
+    <sheet name="spectral" sheetId="5" r:id="rId5"/>
+    <sheet name="spectral sampling" sheetId="6" r:id="rId6"/>
+    <sheet name="spatial sampling" sheetId="7" r:id="rId7"/>
+    <sheet name="list" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="explicit_maximised_order" localSheetId="5">'spatial sampling'!$A$3:$L$15</definedName>
-    <definedName name="sampling_order" localSheetId="4">'spectral sampling'!$A$3:$L$15</definedName>
+    <definedName name="explicit_maximised_order" localSheetId="6">'spatial sampling'!$A$3:$L$15</definedName>
+    <definedName name="sampling_order" localSheetId="5">'spectral sampling'!$A$3:$L$15</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -361,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="221">
   <si>
     <t>01 Massaciuccoli N</t>
   </si>
@@ -886,6 +887,156 @@
   </si>
   <si>
     <t>Tempo stimato</t>
+  </si>
+  <si>
+    <t>Allium savii Parl.</t>
+  </si>
+  <si>
+    <t>Amaranthus tuberculatus (Moq.) J.D.Sauer</t>
+  </si>
+  <si>
+    <t>Anredera cordifolia (Ten.) Steenis</t>
+  </si>
+  <si>
+    <t>Callitriche brutia Petagna</t>
+  </si>
+  <si>
+    <t>Cervaria rivini Gaertn.</t>
+  </si>
+  <si>
+    <t>Charybdis maritima (L.) Speta</t>
+  </si>
+  <si>
+    <t>Chenopodiastrum hybridum (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Chenopodium opulifolium Schrad. ex W.D.J.Koch &amp; Ziz</t>
+  </si>
+  <si>
+    <t>Colchicum autumnale L.</t>
+  </si>
+  <si>
+    <t>Colchicum lusitanum Brot.</t>
+  </si>
+  <si>
+    <t>Colchicum neapolitanum (Ten.) Ten. subsp. neapolitanum</t>
+  </si>
+  <si>
+    <t>Digitaria ciliaris (Retz.) Koeler</t>
+  </si>
+  <si>
+    <t>Digitaria debilis (Desf.) Willd.</t>
+  </si>
+  <si>
+    <t>Dittrichia graveolens (L.) Greuter</t>
+  </si>
+  <si>
+    <t>Dysphania ambrosioides (L.) Mosyakin &amp; Clemants</t>
+  </si>
+  <si>
+    <t>Eclipta prostrata (L.) L.</t>
+  </si>
+  <si>
+    <t>Euphorbia dendroides L.</t>
+  </si>
+  <si>
+    <t>Galatella tripolium (L.) Galasso, Bartolucci &amp; Ardenghi subsp. pannonica (Jacq.) Galasso, Bartolucci &amp; Ardenghi</t>
+  </si>
+  <si>
+    <t>Helianthus pauciflorus Nutt.</t>
+  </si>
+  <si>
+    <t>Helianthus tuberosus L.</t>
+  </si>
+  <si>
+    <t>Hibiscus trionum L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hieracium sabaudum L. </t>
+  </si>
+  <si>
+    <r>
+      <t>Helianthus pauciflorus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nutt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Oenothera biennis L.</t>
+  </si>
+  <si>
+    <t>Oenothera chicaginensis de Vries ex Renner &amp; Cleland</t>
+  </si>
+  <si>
+    <t>Oenothera fallacoides Soldano &amp; Rostański</t>
+  </si>
+  <si>
+    <t>Oenothera glazioviana Micheli</t>
+  </si>
+  <si>
+    <t>Oenothera italica Rostański &amp; Soldano</t>
+  </si>
+  <si>
+    <t>Oenothera laciniata Hill</t>
+  </si>
+  <si>
+    <t>Oenothera rosea L'Hér. ex Aiton</t>
+  </si>
+  <si>
+    <t>Oenothera sinuosa W.L.Wagner &amp; Hoch</t>
+  </si>
+  <si>
+    <t>Oenothera stricta Ledeb. ex Link subsp. stricta</t>
+  </si>
+  <si>
+    <t>Oenothera stucchii Soldano</t>
+  </si>
+  <si>
+    <t>Leersia oryzoides (L.) Sw.</t>
+  </si>
+  <si>
+    <t>Odontites luteus (L.) Clairv. subsp. luteus</t>
+  </si>
+  <si>
+    <t>Oxybasis chenopodioides (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Oxybasis rubra (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Oxybasis urbica (L.) S.Fuentes, Uotila &amp; Borsch</t>
+  </si>
+  <si>
+    <t>Prospero autumnale (L.) Speta</t>
+  </si>
+  <si>
+    <t>Pulicaria vulgaris Gaertn.</t>
+  </si>
+  <si>
+    <t>Salicornia perennans Willd. subsp. perennans</t>
+  </si>
+  <si>
+    <t>Smilax aspera L.</t>
+  </si>
+  <si>
+    <t>Sternbergia lutea (L.) Ker Gawl. ex Spreng.</t>
+  </si>
+  <si>
+    <t>Spiranthes spiralis (L.) Chevall.</t>
+  </si>
+  <si>
+    <t>Symphyotrichum ×salignum (Willd.) G.L.Nesom</t>
+  </si>
+  <si>
+    <t>Tradescantia fluminensis Vell.</t>
   </si>
 </sst>
 </file>
@@ -895,7 +1046,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +1091,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1395,22 +1553,26 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1796875" customWidth="1"/>
+    <col min="6" max="6" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>127</v>
       </c>
@@ -1448,7 +1610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1524,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1600,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>45</v>
       </c>
@@ -1790,7 +1952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -1826,7 +1988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1862,7 +2024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -1898,7 +2060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
@@ -1927,7 +2089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>71</v>
       </c>
@@ -1956,7 +2118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
         <v>74</v>
       </c>
@@ -1985,7 +2147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>80</v>
       </c>
@@ -2014,7 +2176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>83</v>
       </c>
@@ -2040,7 +2202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>122</v>
       </c>
@@ -2066,7 +2228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
         <v>89</v>
       </c>
@@ -2092,7 +2254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
         <v>95</v>
       </c>
@@ -2118,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
@@ -2144,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
         <v>100</v>
       </c>
@@ -2167,7 +2329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
@@ -2190,7 +2352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>107</v>
       </c>
@@ -2210,7 +2372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C26" s="13" t="s">
         <v>110</v>
       </c>
@@ -2224,7 +2386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="13" t="s">
         <v>112</v>
       </c>
@@ -2238,7 +2400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C28" s="13" t="s">
         <v>113</v>
       </c>
@@ -2246,7 +2408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="13" t="s">
         <v>114</v>
       </c>
@@ -2254,7 +2416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C30" s="13" t="s">
         <v>115</v>
       </c>
@@ -2262,7 +2424,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C31" s="13" t="s">
         <v>106</v>
       </c>
@@ -2270,37 +2432,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C32" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C38" s="14" t="s">
         <v>64</v>
       </c>
@@ -2329,6 +2491,306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C37AC9-5E09-4C3E-8DFF-64BF58071F6B}">
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="93.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FECCDD-029B-431A-BDFF-CD6880011535}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2336,13 +2798,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>141</v>
       </c>
@@ -2350,7 +2812,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +2828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2852,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2876,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +2884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2892,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +2900,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BBD183-6FF0-4A5D-B17E-C0B75228DA47}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2460,12 +2922,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="8.77734375" style="25"/>
+    <col min="2" max="3" width="8.81640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -2476,7 +2938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -2487,7 +2949,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -2498,7 +2960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2509,7 +2971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -2520,7 +2982,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -2531,7 +2993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -2542,7 +3004,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -2553,7 +3015,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -2564,7 +3026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -2575,7 +3037,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2586,7 +3048,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2597,7 +3059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2618,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48EA8C-670D-41AD-87B3-D6C51B7B6B15}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -2626,15 +3088,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -2648,7 +3110,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -2659,7 +3121,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -2670,7 +3132,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2681,7 +3143,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -2692,7 +3154,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -2703,7 +3165,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -2714,7 +3176,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -2725,7 +3187,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -2736,7 +3198,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -2747,7 +3209,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2758,7 +3220,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2769,7 +3231,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2780,7 +3242,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2793,7 +3255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED00A2-2E1E-4AEE-A57B-8D7F5FA7ED2C}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -2801,18 +3263,18 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2853,7 +3315,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2891,7 +3353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2929,7 +3391,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -2967,7 +3429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3005,7 +3467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -3043,7 +3505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -3081,7 +3543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -3119,7 +3581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -3157,7 +3619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3195,7 +3657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3233,7 +3695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3271,7 +3733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -3314,7 +3776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A46952-6A89-4D8D-B848-421230CAC97F}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -3322,23 +3784,23 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -3379,7 +3841,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -3417,7 +3879,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -3455,7 +3917,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -3493,7 +3955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3531,7 +3993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -3569,7 +4031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -3607,7 +4069,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -3645,7 +4107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -3683,7 +4145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3721,7 +4183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3759,7 +4221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3797,7 +4259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -3840,1145 +4302,1145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84F665-DE8C-4CD5-AE35-CAAF3C74DFA7}">
   <dimension ref="A1:A307"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.54296875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="19"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="19"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="19"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="19"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="19"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="19"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="19"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="19"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="19"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="19"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="19"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="19"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="19"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="19"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="19"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="19"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="19"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="19"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="19"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="19"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="19"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="19"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="19"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="19"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="19"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="19"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="19"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="19"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="19"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="19"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="19"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="19"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="19"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="19"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="19"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="19"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="19"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="19"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="19"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="19"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="19"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="19"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="19"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="19"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="19"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="19"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="19"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="19"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="19"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="19"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="19"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="19"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="19"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="19"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="19"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="19"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="19"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="19"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="19"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="19"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="19"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="19"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="19"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="19"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="19"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="19"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="19"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="19"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="19"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="19"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="19"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="19"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="19"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="19"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="19"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="19"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="19"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="19"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="19"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="19"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="19"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="19"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="19"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="19"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="19"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="19"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="19"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="19"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="19"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="19"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="19"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="19"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="19"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="19"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="19"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="19"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="19"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="19"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="19"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="19"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="19"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="19"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="19"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="19"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="19"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="19"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="19"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="19"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="19"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="19"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="19"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="19"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="19"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="19"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="19"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="19"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="19"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="19"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="19"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="19"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="19"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="19"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="19"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="19"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="19"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="19"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="19"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="19"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="19"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="19"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="19"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="19"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="19"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="19"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="19"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="19"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="19"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="19"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="19"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="19"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="19"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="19"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="19"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="19"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="19"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="19"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="19"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="19"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="19"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="19"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="19"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="19"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="19"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="19"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="19"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="19"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="19"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="19"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="19"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="19"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="19"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="19"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="19"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="19"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="19"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="19"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="19"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="19"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="19"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="19"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="19"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="19"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="19"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="19"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="19"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="19"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="19"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="19"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="19"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="19"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="19"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="19"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="19"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="19"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="19"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="19"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="19"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="19"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="19"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="19"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="19"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="19"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="19"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" s="19"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" s="19"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" s="19"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" s="19"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="19"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="19"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="19"/>
     </row>
   </sheetData>

--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7307A1F-3D7B-4F80-B13E-A0E63432791C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF1905-81A5-4145-964A-4F4CD0ED7590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" r:id="rId1"/>
-    <sheet name="virtuallist" sheetId="8" r:id="rId2"/>
-    <sheet name="codes" sheetId="3" r:id="rId3"/>
-    <sheet name="coordinates" sheetId="4" r:id="rId4"/>
-    <sheet name="spectral" sheetId="5" r:id="rId5"/>
-    <sheet name="spectral sampling" sheetId="6" r:id="rId6"/>
-    <sheet name="spatial sampling" sheetId="7" r:id="rId7"/>
-    <sheet name="list" sheetId="2" r:id="rId8"/>
+    <sheet name="plots_target" sheetId="9" r:id="rId2"/>
+    <sheet name="virtuallist" sheetId="8" r:id="rId3"/>
+    <sheet name="codes" sheetId="3" r:id="rId4"/>
+    <sheet name="coordinates" sheetId="4" r:id="rId5"/>
+    <sheet name="spectral" sheetId="5" r:id="rId6"/>
+    <sheet name="spectral sampling" sheetId="6" r:id="rId7"/>
+    <sheet name="spatial sampling" sheetId="7" r:id="rId8"/>
+    <sheet name="list" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="explicit_maximised_order" localSheetId="6">'spatial sampling'!$A$3:$L$15</definedName>
-    <definedName name="sampling_order" localSheetId="5">'spectral sampling'!$A$3:$L$15</definedName>
+    <definedName name="explicit_maximised_order" localSheetId="7">'spatial sampling'!$A$3:$L$15</definedName>
+    <definedName name="sampling_order" localSheetId="6">'spectral sampling'!$A$3:$L$15</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -318,6 +319,280 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Giuseppe Antonelli</author>
+  </authors>
+  <commentList>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{C5AE421C-9090-4772-8ACA-E4E2C92A1CE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cfr tutto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{909D033C-4704-4385-8A67-A38E804D7A2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cfr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{2BD87588-D16E-4DE2-81C7-AF73EB8BD026}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cfr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{D69F59F3-82E7-407F-B4D7-D30041EA98B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cfr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{BFBBB271-E6B5-4C87-90C2-C62C12EA78A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+coltivata</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{D929B7EA-3A69-48FC-BF60-89D620232B80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+possibile novità</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{1FBD5740-4019-4824-98A8-AD236CA8C5A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+coltivata</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{86900F6B-12B1-4418-9BE0-BA5749EFA9AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+coltivata</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{2A5F00A5-CA54-4CDB-85BD-615E7641B2F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cfr H. racemosus H. neoplatyphyllum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{3ED9B3F2-61EC-4E00-8C72-50B4638E90F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+aspetto conferma</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{5B79D5A0-F4CB-49C6-9D25-64909D9D859B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giuseppe Antonelli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cfr</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{3EA9134C-3002-4B0E-9AEE-08BF36B7F27C}" name="explicit maximised order" type="6" refreshedVersion="6" background="1" saveData="1">
@@ -362,7 +637,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="221">
   <si>
     <t>01 Massaciuccoli N</t>
   </si>
@@ -1046,7 +1321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,13 +1366,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1552,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2491,11 +2759,949 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52730C-DEB1-4BFD-BE01-A2D5F7FB6DE8}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1796875" customWidth="1"/>
+    <col min="6" max="6" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{092563A9-576E-4F26-ADE3-D5AB90579201}">
+          <x14:formula1>
+            <xm:f>list!$A$1:$A$105</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:L7 C8:L38 A8:A38 B8:B37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C37AC9-5E09-4C3E-8DFF-64BF58071F6B}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2790,7 +3996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FECCDD-029B-431A-BDFF-CD6880011535}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2914,7 +4120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BBD183-6FF0-4A5D-B17E-C0B75228DA47}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3080,7 +4286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48EA8C-670D-41AD-87B3-D6C51B7B6B15}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -3255,7 +4461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED00A2-2E1E-4AEE-A57B-8D7F5FA7ED2C}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -3776,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A46952-6A89-4D8D-B848-421230CAC97F}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -4302,11 +5508,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84F665-DE8C-4CD5-AE35-CAAF3C74DFA7}">
   <dimension ref="A1:A307"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>

--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF1905-81A5-4145-964A-4F4CD0ED7590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD37DF-D03D-4469-89EC-0F8213A22A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" r:id="rId1"/>
@@ -325,103 +325,7 @@
     <author>Giuseppe Antonelli</author>
   </authors>
   <commentList>
-    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{C5AE421C-9090-4772-8ACA-E4E2C92A1CE1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cfr tutto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{909D033C-4704-4385-8A67-A38E804D7A2A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cfr</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{2BD87588-D16E-4DE2-81C7-AF73EB8BD026}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cfr</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{D69F59F3-82E7-407F-B4D7-D30041EA98B2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cfr</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{BFBBB271-E6B5-4C87-90C2-C62C12EA78A3}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{BFBBB271-E6B5-4C87-90C2-C62C12EA78A3}">
       <text>
         <r>
           <rPr>
@@ -445,79 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{D929B7EA-3A69-48FC-BF60-89D620232B80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-possibile novità</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{1FBD5740-4019-4824-98A8-AD236CA8C5A1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-coltivata</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{86900F6B-12B1-4418-9BE0-BA5749EFA9AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-coltivata</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{2A5F00A5-CA54-4CDB-85BD-615E7641B2F9}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{2A5F00A5-CA54-4CDB-85BD-615E7641B2F9}">
       <text>
         <r>
           <rPr>
@@ -541,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{3ED9B3F2-61EC-4E00-8C72-50B4638E90F8}">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{3ED9B3F2-61EC-4E00-8C72-50B4638E90F8}">
       <text>
         <r>
           <rPr>
@@ -562,30 +394,6 @@
           </rPr>
           <t xml:space="preserve">
 aspetto conferma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{5B79D5A0-F4CB-49C6-9D25-64909D9D859B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giuseppe Antonelli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cfr</t>
         </r>
       </text>
     </comment>
@@ -637,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="213">
   <si>
     <t>01 Massaciuccoli N</t>
   </si>
@@ -861,9 +669,6 @@
     <t>Achillea millefolium L. subsp. millefolium</t>
   </si>
   <si>
-    <t>Echium plantaginum</t>
-  </si>
-  <si>
     <t>Campanula trachelium L. subsp. trachelium</t>
   </si>
   <si>
@@ -879,9 +684,6 @@
     <t>Jacobaea erucifolia (L.) G.Gaertn., B.Mey. &amp; Scherb. subsp. erucifolia</t>
   </si>
   <si>
-    <t>Galium verum</t>
-  </si>
-  <si>
     <t>Fatsia japonica (Thunb.) Decne. &amp; Planch.</t>
   </si>
   <si>
@@ -906,9 +708,6 @@
     <t>Ononis spinosa L. subsp. spinosa</t>
   </si>
   <si>
-    <t>Oxalis corniculata</t>
-  </si>
-  <si>
     <t>Convolvulus cantabrica L.</t>
   </si>
   <si>
@@ -924,24 +723,15 @@
     <t>Pastinaca sativa L. subsp. sativa</t>
   </si>
   <si>
-    <t>Pallenis spinosa</t>
-  </si>
-  <si>
     <t>Dianthus balbisii Ser. subsp. balbisii</t>
   </si>
   <si>
     <t>Paspalum dilatatum Poir.</t>
   </si>
   <si>
-    <t>Rapanus raphanistrum</t>
-  </si>
-  <si>
     <t>Scabiosa uniseta Savi</t>
   </si>
   <si>
-    <t>Senecio inaequiens</t>
-  </si>
-  <si>
     <t>Echium italicum L. subsp. italicum</t>
   </si>
   <si>
@@ -951,16 +741,10 @@
     <t>Sonchus oleraceus L.</t>
   </si>
   <si>
-    <t>Setaria pumila</t>
-  </si>
-  <si>
     <t>Solanum dulcamara L.</t>
   </si>
   <si>
     <t>Rubus caesius L.</t>
-  </si>
-  <si>
-    <t>Silene latifolia</t>
   </si>
   <si>
     <t>Vincetoxicum hirundinaria Medik. subsp. hirundinaria</t>
@@ -1500,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1530,6 +1314,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1820,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1842,40 +1629,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2388,16 +2175,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>40</v>
@@ -2406,18 +2193,18 @@
         <v>33</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>20</v>
@@ -2426,7 +2213,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>36</v>
@@ -2438,15 +2225,15 @@
         <v>13</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>24</v>
@@ -2472,42 +2259,42 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>23</v>
@@ -2516,33 +2303,33 @@
         <v>30</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>41</v>
@@ -2550,13 +2337,13 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>62</v>
@@ -2576,16 +2363,16 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>17</v>
@@ -2594,18 +2381,18 @@
         <v>41</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>35</v>
@@ -2614,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>55</v>
@@ -2622,19 +2409,19 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>47</v>
@@ -2642,13 +2429,13 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C26" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>39</v>
@@ -2656,10 +2443,10 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>62</v>
@@ -2670,7 +2457,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C28" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>47</v>
@@ -2678,41 +2465,41 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C30" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C31" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C32" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.35">
@@ -2722,12 +2509,12 @@
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C36" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C37" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.35">
@@ -2760,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D52730C-DEB1-4BFD-BE01-A2D5F7FB6DE8}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2784,47 +2571,47 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2839,11 +2626,11 @@
       <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="30" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
@@ -2851,830 +2638,141 @@
       <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
+      <c r="A3" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>28</v>
+      <c r="I7" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>21</v>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="13" t="s">
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
         <v>109</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C34" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C35" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C36" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C37" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C38" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +2786,7 @@
           <x14:formula1>
             <xm:f>list!$A$1:$A$105</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:L7 C8:L38 A8:A38 B8:B37</xm:sqref>
+          <xm:sqref>A2:A28 B2:L2 B3:B14 C3:J3 C4:C11 D4:D23 E3:E17 F3:F18 G4:G28 H2:H22 I3:I15 J3:J11 L3:L15 K3:K24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3700,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C37AC9-5E09-4C3E-8DFF-64BF58071F6B}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3712,17 +2810,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -3737,7 +2835,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
@@ -3747,37 +2845,37 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
@@ -3787,17 +2885,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -3807,22 +2905,22 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
@@ -3832,132 +2930,132 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
@@ -3967,17 +3065,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
@@ -3987,7 +3085,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4012,10 +3110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4023,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4031,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4039,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4047,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4055,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4063,7 +3161,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4071,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4079,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4087,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4095,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4103,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4111,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4135,145 +3233,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4304,21 +3402,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="28"/>
@@ -4329,7 +3427,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="28"/>
@@ -4340,7 +3438,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="28"/>
@@ -4351,7 +3449,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="28"/>
@@ -4362,7 +3460,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="28"/>
@@ -4373,7 +3471,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="28"/>
@@ -4384,7 +3482,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="28"/>
@@ -4395,7 +3493,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="28"/>
@@ -4406,7 +3504,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="28"/>
@@ -4417,7 +3515,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="28"/>
@@ -4428,7 +3526,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="28"/>
@@ -4439,7 +3537,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="28"/>
@@ -4477,12 +3575,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4518,463 +3616,463 @@
         <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" t="s">
-        <v>135</v>
-      </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
         <v>128</v>
       </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s">
         <v>127</v>
-      </c>
-      <c r="J9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
         <v>130</v>
       </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" t="s">
-        <v>138</v>
-      </c>
       <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
         <v>127</v>
       </c>
-      <c r="K10" t="s">
-        <v>135</v>
-      </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" t="s">
         <v>128</v>
       </c>
-      <c r="C12" t="s">
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
         <v>130</v>
       </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" t="s">
-        <v>138</v>
-      </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
         <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
         <v>128</v>
       </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
         <v>127</v>
-      </c>
-      <c r="I15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5003,12 +4101,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -5044,463 +4142,463 @@
         <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
         <v>128</v>
       </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" t="s">
-        <v>136</v>
-      </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
         <v>128</v>
       </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" t="s">
-        <v>136</v>
-      </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
         <v>128</v>
       </c>
-      <c r="G6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" t="s">
-        <v>136</v>
-      </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
         <v>127</v>
       </c>
-      <c r="E7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" t="s">
-        <v>136</v>
-      </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s">
         <v>127</v>
       </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s">
         <v>128</v>
       </c>
-      <c r="F8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" t="s">
-        <v>136</v>
-      </c>
       <c r="L8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
         <v>127</v>
       </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
         <v>128</v>
       </c>
-      <c r="F9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
-      </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
         <v>127</v>
       </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
         <v>128</v>
       </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" t="s">
-        <v>136</v>
-      </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="F11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" t="s">
-        <v>136</v>
-      </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
         <v>128</v>
       </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
         <v>127</v>
       </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
         <v>128</v>
       </c>
-      <c r="F14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" t="s">
-        <v>136</v>
-      </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
         <v>128</v>
       </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" t="s">
-        <v>136</v>
-      </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5538,7 +4636,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
@@ -5588,7 +4686,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
@@ -5628,7 +4726,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
@@ -5638,7 +4736,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
@@ -5648,7 +4746,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
@@ -5673,7 +4771,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
@@ -5688,17 +4786,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
@@ -5718,7 +4816,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
@@ -5753,7 +4851,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
@@ -5763,12 +4861,12 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
@@ -5778,17 +4876,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
@@ -5798,22 +4896,22 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
@@ -5823,7 +4921,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
@@ -5833,27 +4931,27 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
@@ -5863,27 +4961,27 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
@@ -5913,12 +5011,12 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -5928,32 +5026,32 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
@@ -5973,7 +5071,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
@@ -5983,7 +5081,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
@@ -5998,12 +5096,12 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
@@ -6043,7 +5141,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">

--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD37DF-D03D-4469-89EC-0F8213A22A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762D28B-F802-4C98-9C39-D649F7A1BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="213">
   <si>
     <t>01 Massaciuccoli N</t>
   </si>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2550,7 +2550,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2796,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C37AC9-5E09-4C3E-8DFF-64BF58071F6B}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2808,162 +2808,183 @@
     <col min="2" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>201</v>
       </c>
@@ -3048,42 +3069,51 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>212</v>
       </c>
@@ -4610,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84F665-DE8C-4CD5-AE35-CAAF3C74DFA7}">
   <dimension ref="A1:A307"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>

--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762D28B-F802-4C98-9C39-D649F7A1BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93915F80-4D7E-4EB4-90F4-3F4F37F69F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4641,7 +4641,7 @@
   <dimension ref="A1:A307"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/specie-per-plot_coord.xlsx
+++ b/specie-per-plot_coord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93915F80-4D7E-4EB4-90F4-3F4F37F69F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5699673B-E683-4890-9B93-A4530DABB667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plots" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,9 @@
     <sheet name="virtuallist" sheetId="8" r:id="rId3"/>
     <sheet name="codes" sheetId="3" r:id="rId4"/>
     <sheet name="coordinates" sheetId="4" r:id="rId5"/>
-    <sheet name="spectral" sheetId="5" r:id="rId6"/>
-    <sheet name="spectral sampling" sheetId="6" r:id="rId7"/>
-    <sheet name="spatial sampling" sheetId="7" r:id="rId8"/>
-    <sheet name="list" sheetId="2" r:id="rId9"/>
+    <sheet name="list" sheetId="2" r:id="rId6"/>
+    <sheet name="list_target" sheetId="10" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="explicit_maximised_order" localSheetId="7">'spatial sampling'!$A$3:$L$15</definedName>
-    <definedName name="sampling_order" localSheetId="6">'spectral sampling'!$A$3:$L$15</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -401,51 +395,8 @@
 </comments>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3EA9134C-3002-4B0E-9AEE-08BF36B7F27C}" name="explicit maximised order" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="1251" sourceFile="C:\Users\MARCO\Documents\Tesi laureandi\Giuseppe Antonelli\OPTIMISED SAMPLING NEW\explicit maximised order.csv" comma="1">
-      <textFields count="13">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" xr16:uid="{052C4FED-EA98-41CF-9D00-62930F3EC8C4}" name="sampling order" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="1251" sourceFile="C:\Users\MARCO\Documents\Tesi laureandi\Giuseppe Antonelli\OPTIMISED SAMPLING NEW\sampling order.csv" comma="1">
-      <textFields count="13">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="214">
   <si>
     <t>01 Massaciuccoli N</t>
   </si>
@@ -925,27 +876,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>buffers</t>
-  </si>
-  <si>
-    <t>transects</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Distanza spettrale nella sequenza dei plot massimizzata</t>
-  </si>
-  <si>
-    <t>Distanza spazoale nella sequenza dei plot massimizzata</t>
-  </si>
-  <si>
-    <t>Tempo stimato</t>
   </si>
   <si>
     <t>Allium savii Parl.</t>
@@ -1096,6 +1026,30 @@
   </si>
   <si>
     <t>Tradescantia fluminensis Vell.</t>
+  </si>
+  <si>
+    <t>colt</t>
+  </si>
+  <si>
+    <t>Achillea millefolium L. subsp. Millefolium</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>all nat</t>
+  </si>
+  <si>
+    <t>all inv</t>
+  </si>
+  <si>
+    <t>Dianthus balbisii Ser. subsp. Balbisii</t>
+  </si>
+  <si>
+    <t>Dittrichia viscosa (L.) Greuter subsp. Viscosa</t>
+  </si>
+  <si>
+    <t>Vincetoxicum hirundinaria Medik. subsp. Hirundinaria</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1313,7 +1267,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1332,14 +1285,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="sampling order" connectionId="2" xr16:uid="{71800E2D-0606-4BD5-A1EA-991153ADD4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="explicit maximised order" connectionId="1" xr16:uid="{97062E3C-CE80-4018-999C-5E076A77DB70}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L43" sqref="A1:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2550,7 +2495,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A2" sqref="A2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2611,7 +2556,7 @@
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2626,7 +2571,7 @@
       <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2641,7 +2586,7 @@
       <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2673,7 +2618,7 @@
       <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -2799,7 +2744,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2810,17 +2755,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2841,7 +2786,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2854,37 +2799,37 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2897,17 +2842,17 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2920,22 +2865,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2948,32 +2893,32 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2986,87 +2931,87 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -3079,7 +3024,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3092,17 +3037,17 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -3115,7 +3060,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3415,1233 +3360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48EA8C-670D-41AD-87B3-D6C51B7B6B15}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84F665-DE8C-4CD5-AE35-CAAF3C74DFA7}">
+  <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED00A2-2E1E-4AEE-A57B-8D7F5FA7ED2C}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="12" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A46952-6A89-4D8D-B848-421230CAC97F}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84F665-DE8C-4CD5-AE35-CAAF3C74DFA7}">
-  <dimension ref="A1:A307"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4649,322 +3372,445 @@
     <col min="1" max="1" width="66.54296875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
         <v>105</v>
       </c>
@@ -5049,150 +3895,186 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="19"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="19"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="19"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="19"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="19"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="19"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="19"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
@@ -5784,4 +4666,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDF0F4D-A4C1-4D08-A67A-90A1D6700A69}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="74.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A67">
+    <sortCondition ref="A1:A67"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>